--- a/Results/SFC_Cruise_kg_s_N Inital_Predictions/SVR_Confidence_Scores.xlsx
+++ b/Results/SFC_Cruise_kg_s_N Inital_Predictions/SVR_Confidence_Scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,818 +457,852 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B2" t="n">
-        <v>0.17732</v>
+        <v>0.22481</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1772142368571483</v>
+        <v>0.2245190295220913</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0001057631428517114</v>
+        <v>0.0002909704779086864</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9998942480418078</v>
+        <v>0.9997091141612829</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B3" t="n">
-        <v>0.22481</v>
+        <v>0.15737</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2245472892338015</v>
+        <v>0.156958355040731</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0002627107661984929</v>
+        <v>0.0004116449592690141</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9997373582326214</v>
+        <v>0.9995885244225783</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>0.18153</v>
+        <v>0.17142</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1820052751018018</v>
+        <v>0.1721887178088827</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0004752751018017864</v>
+        <v>0.0007687178088826851</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9995249506773134</v>
+        <v>0.9992318726642798</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B5" t="n">
-        <v>0.17142</v>
+        <v>0.18125</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1719575179624044</v>
+        <v>0.1797307402761048</v>
       </c>
       <c r="D5" t="n">
-        <v>0.000537517962404449</v>
+        <v>0.001519259723895244</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9994627708079361</v>
+        <v>0.9984830449248533</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B6" t="n">
-        <v>0.17704</v>
+        <v>0.22368</v>
       </c>
       <c r="C6" t="n">
-        <v>0.176211694978398</v>
+        <v>0.2217398189483024</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0008283050216020271</v>
+        <v>0.001940181051697576</v>
       </c>
       <c r="E6" t="n">
-        <v>0.999172380499786</v>
+        <v>0.9980635759615301</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.17788</v>
+        <v>0.16776</v>
       </c>
       <c r="C7" t="n">
-        <v>0.176924973562857</v>
+        <v>0.1652760392406877</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0009550264371429862</v>
+        <v>0.002483960759312315</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9990458847681276</v>
+        <v>0.9975221940135273</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B8" t="n">
-        <v>0.17732</v>
+        <v>0.16776</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1762700818827942</v>
+        <v>0.1652760392406877</v>
       </c>
       <c r="D8" t="n">
-        <v>0.001049918117205839</v>
+        <v>0.002483960759312315</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9989511830547066</v>
+        <v>0.9975221940135273</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>0.22481</v>
+        <v>0.15877</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2234818790977086</v>
+        <v>0.156094703907413</v>
       </c>
       <c r="D9" t="n">
-        <v>0.001328120902291452</v>
+        <v>0.00267529609258696</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9986736406632676</v>
+        <v>0.9973318420200313</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B10" t="n">
-        <v>0.17704</v>
+        <v>0.18266</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1787050345903373</v>
+        <v>0.1791100354668042</v>
       </c>
       <c r="D10" t="n">
-        <v>0.001665034590337344</v>
+        <v>0.003549964533195837</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9983377331414806</v>
+        <v>0.9964625931357119</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B11" t="n">
-        <v>0.21048</v>
+        <v>0.16186</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2129575534241466</v>
+        <v>0.1654959149585054</v>
       </c>
       <c r="D11" t="n">
-        <v>0.002477553424146572</v>
+        <v>0.003635914958505376</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9975285696765139</v>
+        <v>0.9963772570268614</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="B12" t="n">
-        <v>0.17423</v>
+        <v>0.16439</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1769650141741099</v>
+        <v>0.1682189277482268</v>
       </c>
       <c r="D12" t="n">
-        <v>0.002735014174109873</v>
+        <v>0.003828927748226796</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9972724457254916</v>
+        <v>0.9961856770188763</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B13" t="n">
-        <v>0.15877</v>
+        <v>0.16018</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1552076413590471</v>
+        <v>0.1645314940531793</v>
       </c>
       <c r="D13" t="n">
-        <v>0.003562358640952917</v>
+        <v>0.004351494053179333</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9964502867108554</v>
+        <v>0.9956673594065975</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B14" t="n">
-        <v>0.16748</v>
+        <v>0.15315</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1639110565875936</v>
+        <v>0.1576436960747196</v>
       </c>
       <c r="D14" t="n">
-        <v>0.003568943412406433</v>
+        <v>0.004493696074719611</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9964437486474311</v>
+        <v>0.9955264068930648</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>0.21638</v>
+        <v>0.15315</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2201391418505094</v>
+        <v>0.1576436960747196</v>
       </c>
       <c r="D15" t="n">
-        <v>0.003759141850509379</v>
+        <v>0.004493696074719611</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9962549363748966</v>
+        <v>0.9955264068930648</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="B16" t="n">
-        <v>0.17648</v>
+        <v>0.15315</v>
       </c>
       <c r="C16" t="n">
-        <v>0.172445378422173</v>
+        <v>0.1576436960747196</v>
       </c>
       <c r="D16" t="n">
-        <v>0.004034621577826997</v>
+        <v>0.004493696074719611</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9959815911811022</v>
+        <v>0.9955264068930648</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.16861</v>
+        <v>0.15315</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1730626065126074</v>
+        <v>0.1576436960747196</v>
       </c>
       <c r="D17" t="n">
-        <v>0.004452606512607399</v>
+        <v>0.004493696074719611</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9955671313074028</v>
+        <v>0.9955264068930648</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B18" t="n">
-        <v>0.17535</v>
+        <v>0.16748</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1801085422168877</v>
+        <v>0.162933511863766</v>
       </c>
       <c r="D18" t="n">
-        <v>0.004758542216887734</v>
+        <v>0.004546488136233984</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9952639942663354</v>
+        <v>0.9954740888650466</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n">
-        <v>0.17423</v>
+        <v>0.16861</v>
       </c>
       <c r="C19" t="n">
-        <v>0.169395172012211</v>
+        <v>0.1732360304203135</v>
       </c>
       <c r="D19" t="n">
-        <v>0.004834827987789031</v>
+        <v>0.004626030420313537</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9951884351008504</v>
+        <v>0.9953952711952146</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B20" t="n">
-        <v>0.16355</v>
+        <v>0.16158</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1685049354107694</v>
+        <v>0.1665477079343512</v>
       </c>
       <c r="D20" t="n">
-        <v>0.00495493541076944</v>
+        <v>0.004967707934351223</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9950694949234274</v>
+        <v>0.9950568482000659</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B21" t="n">
-        <v>0.17423</v>
+        <v>0.16158</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1692080137158403</v>
+        <v>0.1666916511205784</v>
       </c>
       <c r="D21" t="n">
-        <v>0.00502198628415973</v>
+        <v>0.005111651120578375</v>
       </c>
       <c r="E21" t="n">
-        <v>0.995003108038733</v>
+        <v>0.994914344973636</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B22" t="n">
-        <v>0.20458</v>
+        <v>0.20711</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1992083708990814</v>
+        <v>0.2124249656365614</v>
       </c>
       <c r="D22" t="n">
-        <v>0.005371629100918651</v>
+        <v>0.005314965636561447</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9946570711312767</v>
+        <v>0.9947131338752169</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B23" t="n">
-        <v>0.21048</v>
+        <v>0.22762</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2159853391260055</v>
+        <v>0.2219268355261723</v>
       </c>
       <c r="D23" t="n">
-        <v>0.00550533912600551</v>
+        <v>0.005693164473827672</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9945248036864818</v>
+        <v>0.9943390641649571</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B24" t="n">
-        <v>0.16186</v>
+        <v>0.20682</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1674180726515736</v>
+        <v>0.2129486219422781</v>
       </c>
       <c r="D24" t="n">
-        <v>0.005558072651573598</v>
+        <v>0.00612862194227809</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9944726487681438</v>
+        <v>0.9939087092757116</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="B25" t="n">
-        <v>0.20233</v>
+        <v>0.18462</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1966694334384671</v>
+        <v>0.1783048300408952</v>
       </c>
       <c r="D25" t="n">
-        <v>0.005660566561532937</v>
+        <v>0.006315169959104805</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9943712950972243</v>
+        <v>0.99372446113541</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="B26" t="n">
-        <v>0.16299</v>
+        <v>0.17142</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1693820558866628</v>
+        <v>0.1648298153633798</v>
       </c>
       <c r="D26" t="n">
-        <v>0.006392055886662806</v>
+        <v>0.0065901846366202</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9936485429815608</v>
+        <v>0.9934529615555516</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B27" t="n">
-        <v>0.16018</v>
+        <v>0.17732</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1681936646575858</v>
+        <v>0.170629388327448</v>
       </c>
       <c r="D27" t="n">
-        <v>0.008013664657585823</v>
+        <v>0.006690611672552027</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9920500436268311</v>
+        <v>0.9933538551020795</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B28" t="n">
-        <v>0.19952</v>
+        <v>0.16861</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2077497578959032</v>
+        <v>0.1753306556431753</v>
       </c>
       <c r="D28" t="n">
-        <v>0.008229757895903245</v>
+        <v>0.006720655643175283</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9918374181763112</v>
+        <v>0.9933242100422767</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>0.20233</v>
+        <v>0.17029</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1940970490325524</v>
+        <v>0.1633754070507057</v>
       </c>
       <c r="D29" t="n">
-        <v>0.008232950967447639</v>
+        <v>0.006914592949294335</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9918342770293832</v>
+        <v>0.9931328903188886</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B30" t="n">
-        <v>0.22762</v>
+        <v>0.1939</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2191369102890005</v>
+        <v>0.2008229979982367</v>
       </c>
       <c r="D30" t="n">
-        <v>0.008483089710999481</v>
+        <v>0.006922997998236674</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9915882677681481</v>
+        <v>0.9931246003795727</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B31" t="n">
         <v>0.18378</v>
       </c>
       <c r="C31" t="n">
-        <v>0.174911072625528</v>
+        <v>0.1768402465357402</v>
       </c>
       <c r="D31" t="n">
-        <v>0.00886892737447198</v>
+        <v>0.00693975346425979</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9912090390200113</v>
+        <v>0.9931080747975393</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="B32" t="n">
-        <v>0.18378</v>
+        <v>0.15315</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1748209312028775</v>
+        <v>0.1607856339090119</v>
       </c>
       <c r="D32" t="n">
-        <v>0.008959068797122466</v>
+        <v>0.007635633909011924</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9911204834029558</v>
+        <v>0.9924222271900107</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n">
-        <v>0.15315</v>
+        <v>0.17732</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1626281210474198</v>
+        <v>0.1695964700346415</v>
       </c>
       <c r="D33" t="n">
-        <v>0.009478121047419824</v>
+        <v>0.007723529965358494</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9906108702607785</v>
+        <v>0.9923356657498869</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B34" t="n">
-        <v>0.18968</v>
+        <v>0.17535</v>
       </c>
       <c r="C34" t="n">
-        <v>0.199326969187213</v>
+        <v>0.1669551346146746</v>
       </c>
       <c r="D34" t="n">
-        <v>0.009646969187212973</v>
+        <v>0.008394865385325356</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9904452056197633</v>
+        <v>0.9916750216869484</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B35" t="n">
-        <v>0.18153</v>
+        <v>0.17535</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1713314250121288</v>
+        <v>0.1668399800656924</v>
       </c>
       <c r="D35" t="n">
-        <v>0.01019857498787125</v>
+        <v>0.008510019934307639</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9899043858896814</v>
+        <v>0.9915617894060568</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="B36" t="n">
-        <v>0.1613</v>
+        <v>0.20345</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1719387739409834</v>
+        <v>0.2119668834490189</v>
       </c>
       <c r="D36" t="n">
-        <v>0.01063877394098339</v>
+        <v>0.008516883449018908</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9894732181118506</v>
+        <v>0.9915550412801299</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="B37" t="n">
-        <v>0.21666</v>
+        <v>0.17704</v>
       </c>
       <c r="C37" t="n">
-        <v>0.2054007683833105</v>
+        <v>0.1677625419157248</v>
       </c>
       <c r="D37" t="n">
-        <v>0.01125923161668946</v>
+        <v>0.009277458084275242</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9888661272355561</v>
+        <v>0.990807821962174</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>0.23605</v>
+        <v>0.19109</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2246301346590047</v>
+        <v>0.181549078802982</v>
       </c>
       <c r="D38" t="n">
-        <v>0.01141986534099532</v>
+        <v>0.009540921197018049</v>
       </c>
       <c r="E38" t="n">
-        <v>0.988709075496411</v>
+        <v>0.9905492476860617</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B39" t="n">
-        <v>0.19671</v>
+        <v>0.17338</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2084561581823343</v>
+        <v>0.1633322240948365</v>
       </c>
       <c r="D39" t="n">
-        <v>0.01174615818233432</v>
+        <v>0.01004777590516348</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9883902122213767</v>
+        <v>0.9900521775852048</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B40" t="n">
-        <v>0.16299</v>
+        <v>0.17985</v>
       </c>
       <c r="C40" t="n">
-        <v>0.1784125759301632</v>
+        <v>0.1899529192201625</v>
       </c>
       <c r="D40" t="n">
-        <v>0.01542257593016319</v>
+        <v>0.01010291922016249</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9848116672843958</v>
+        <v>0.9899981288758553</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B41" t="n">
-        <v>0.16861</v>
+        <v>0.1672</v>
       </c>
       <c r="C41" t="n">
-        <v>0.187395875588749</v>
+        <v>0.1781685886344997</v>
       </c>
       <c r="D41" t="n">
-        <v>0.01878587558874897</v>
+        <v>0.01096858863449973</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9815605260743405</v>
+        <v>0.9891504159893684</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B42" t="n">
-        <v>0.18266</v>
+        <v>0.21638</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1617266732983191</v>
+        <v>0.2275050562956946</v>
       </c>
       <c r="D42" t="n">
-        <v>0.02093332670168094</v>
+        <v>0.01112505629569463</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9794958924797665</v>
+        <v>0.9889973488181059</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="B43" t="n">
-        <v>0.18266</v>
+        <v>0.22368</v>
       </c>
       <c r="C43" t="n">
-        <v>0.1615379026174058</v>
+        <v>0.2115184983252575</v>
       </c>
       <c r="D43" t="n">
-        <v>0.02112209738259421</v>
+        <v>0.01216150167474248</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9793148170657203</v>
+        <v>0.9879846233485271</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B44" t="n">
-        <v>0.25853</v>
+        <v>0.21244</v>
       </c>
       <c r="C44" t="n">
-        <v>0.2332699848026963</v>
+        <v>0.1997260920445284</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0252600151973037</v>
+        <v>0.01271390795547159</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9753623326542754</v>
+        <v>0.9874457061805942</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B45" t="n">
-        <v>0.15315</v>
+        <v>0.18153</v>
       </c>
       <c r="C45" t="n">
-        <v>0.1270081230544484</v>
+        <v>0.1632332342129318</v>
       </c>
       <c r="D45" t="n">
-        <v>0.02614187694555165</v>
+        <v>0.01829676578706818</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9745241106197065</v>
+        <v>0.9820319906712792</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B46" t="n">
-        <v>0.26134</v>
+        <v>0.18153</v>
       </c>
       <c r="C46" t="n">
-        <v>0.2311487105540005</v>
+        <v>0.1628143091683592</v>
       </c>
       <c r="D46" t="n">
-        <v>0.03019128944599955</v>
+        <v>0.01871569083164085</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9706935112388348</v>
+        <v>0.981628151013987</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B47" t="n">
-        <v>0.22762</v>
+        <v>0.22902</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1950387078785955</v>
+        <v>0.2088530628100272</v>
       </c>
       <c r="D47" t="n">
-        <v>0.03258129212140445</v>
+        <v>0.02016693718997278</v>
       </c>
       <c r="E47" t="n">
-        <v>0.968446753422709</v>
+        <v>0.9802317283036811</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="B48" t="n">
-        <v>0.26415</v>
+        <v>0.18856</v>
       </c>
       <c r="C48" t="n">
-        <v>0.2165959118240106</v>
+        <v>0.1652760392406877</v>
       </c>
       <c r="D48" t="n">
-        <v>0.04755408817598938</v>
+        <v>0.02328396075931233</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9546046464686219</v>
+        <v>0.9772458460679528</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B49" t="n">
-        <v>0.31473</v>
+        <v>0.15456</v>
       </c>
       <c r="C49" t="n">
-        <v>0.2278456143730504</v>
+        <v>0.1238428960053107</v>
       </c>
       <c r="D49" t="n">
-        <v>0.08688438562694958</v>
+        <v>0.03071710399468927</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9200610600576141</v>
+        <v>0.970198317389281</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.11606</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.1748567354017547</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.05879673540175467</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.9444683446445983</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.1377</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.03279153328981071</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.1049084667101893</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.9050523460802604</v>
       </c>
     </row>
   </sheetData>
